--- a/templates/dataplant/Imaging_computation/Imaging_computation_v2.0.0.xlsx
+++ b/templates/dataplant/Imaging_computation/Imaging_computation_v2.0.0.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F986CDE-71E4-4F66-914B-20A63062BCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1995" yWindow="435" windowWidth="24510" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Imageanalysis" state="visible" r:id="rId5"/>
+    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
+    <sheet name="Imageanalysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -95,9 +99,6 @@
     <t>Tags Term Source REF</t>
   </si>
   <si>
-    <t>AFO</t>
-  </si>
-  <si>
     <t>NCIT</t>
   </si>
   <si>
@@ -240,19 +241,30 @@
   </si>
   <si>
     <t>ImageJ</t>
+  </si>
+  <si>
+    <t>AFP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,13 +284,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -295,8 +310,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:R2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:R2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:R2">
+  <autoFilter ref="A1:R2" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -317,24 +332,24 @@
     <filterColumn colId="17" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" name="Input [Data]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Data Format" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Data Selector Format" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Parameter [image processing technique]" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Term Source REF (ERO:0001788)" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Accession Number (ERO:0001788)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Component [image processing software]" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Term Source REF (DPBO:1000128)" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Accession Number (DPBO:1000128)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Parameter [data analysis]" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Term Source REF (SIO:001051)" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Accession Number (SIO:001051)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Component [image data analysis software]" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Term Source REF (DPBO:1000129)" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Accession Number (DPBO:1000129)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Output [Data]" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Data Format " totalsRowFunction="none"/>
-    <tableColumn id="18" name="Data Selector Format " totalsRowFunction="none"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Data]" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Data Format"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Data Selector Format"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Parameter [image processing technique]"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Term Source REF (ERO:0001788)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Accession Number (ERO:0001788)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Component [image processing software]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Term Source REF (DPBO:1000128)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Accession Number (DPBO:1000128)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Parameter [data analysis]"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Term Source REF (SIO:001051)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Term Accession Number (SIO:001051)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Component [image data analysis software]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Term Source REF (DPBO:1000129)"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Accession Number (DPBO:1000129)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Output [Data]"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Data Format "/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Data Selector Format "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -636,16 +651,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="150.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -653,7 +677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -661,7 +685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -669,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -677,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -685,7 +709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -693,27 +717,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -736,7 +760,7 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
@@ -751,234 +775,240 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{EDB073C1-1201-474F-BEB4-7F97C2F9142A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>65</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>67</v>
-      </c>
-      <c r="R1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>72</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>73</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" t="s">
         <v>74</v>
       </c>
-      <c r="K2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" t="s">
-        <v>75</v>
-      </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
